--- a/data/words.xlsx
+++ b/data/words.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -479,7 +476,7 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>45219</v>
       </c>
       <c r="E2" t="n">
@@ -496,11 +493,13 @@
         <v>45219</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>0.5498339973124778</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45220</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -513,11 +512,13 @@
         <v>45219</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.4017595785333555</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45220</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -530,11 +531,13 @@
         <v>45219</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45220</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -547,11 +550,13 @@
         <v>45219</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.5498339973124778</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45220</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +573,7 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/data/words.xlsx
+++ b/data/words.xlsx
@@ -590,7 +590,7 @@
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -607,7 +607,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">

--- a/data/words.xlsx
+++ b/data/words.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,16 +474,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.399493648602005</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +493,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5498339973124778</v>
+        <v>1.399493648602005</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45220</v>
+        <v>45224</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -509,13 +512,13 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4017595785333555</v>
+        <v>1.399493648602005</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45220</v>
+        <v>45224</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -528,16 +531,16 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>1.399493648602005</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45220</v>
+        <v>45224</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +550,16 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5498339973124778</v>
+        <v>1.399493648602005</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45220</v>
+        <v>45224</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -566,14 +569,16 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>3.033244781719735</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45224</v>
+      </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -583,14 +588,16 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>1.399493648602005</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45224</v>
+      </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -600,14 +607,16 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>3.033244781719735</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45224</v>
+      </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -617,14 +626,16 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>3.033244781719735</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45224</v>
+      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -634,14 +645,16 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>3.033244781719735</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>45224</v>
+      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +664,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -668,7 +681,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -685,7 +698,7 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -702,7 +715,7 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -719,7 +732,7 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -736,7 +749,7 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -753,7 +766,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -770,7 +783,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -787,7 +800,7 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -804,7 +817,7 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -821,7 +834,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -838,7 +851,7 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -855,7 +868,7 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -872,7 +885,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -889,7 +902,7 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -906,7 +919,7 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -923,7 +936,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -940,7 +953,7 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -957,7 +970,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -974,7 +987,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -991,7 +1004,7 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1008,7 +1021,7 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1025,7 +1038,7 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1042,7 +1055,7 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1059,7 +1072,7 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1076,7 +1089,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1093,7 +1106,7 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1110,7 +1123,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1127,7 +1140,7 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1144,7 +1157,7 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1161,7 +1174,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1178,7 +1191,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1195,7 +1208,7 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1212,7 +1225,7 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1229,7 +1242,7 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1246,7 +1259,7 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1263,7 +1276,7 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1280,7 +1293,7 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1297,7 +1310,7 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1314,7 +1327,7 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1331,7 +1344,7 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1348,7 +1361,7 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1365,7 +1378,7 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1382,7 +1395,7 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1399,7 +1412,7 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1416,7 +1429,7 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1433,7 +1446,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1450,7 +1463,7 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1467,7 +1480,7 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1484,7 +1497,7 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1501,7 +1514,7 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1518,7 +1531,7 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1535,7 +1548,7 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1552,7 +1565,7 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1569,7 +1582,7 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1586,7 +1599,7 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1603,7 +1616,7 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1620,7 +1633,7 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1637,7 +1650,7 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1654,7 +1667,7 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1671,7 +1684,7 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -1688,7 +1701,7 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1705,7 +1718,7 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1722,7 +1735,7 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -1739,7 +1752,7 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -1756,7 +1769,7 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1773,7 +1786,7 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1790,7 +1803,7 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1807,7 +1820,7 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1824,7 +1837,7 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1841,7 +1854,7 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1858,7 +1871,7 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1875,7 +1888,7 @@
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1892,7 +1905,7 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1909,7 +1922,7 @@
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1926,7 +1939,7 @@
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1943,7 +1956,7 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1960,7 +1973,7 @@
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1977,7 +1990,7 @@
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1994,7 +2007,7 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2011,7 +2024,7 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2028,7 +2041,7 @@
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2045,7 +2058,7 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2062,7 +2075,7 @@
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2079,7 +2092,7 @@
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2096,7 +2109,7 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2113,7 +2126,7 @@
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2130,7 +2143,7 @@
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2147,7 +2160,7 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -2164,7 +2177,7 @@
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -2181,7 +2194,7 @@
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2198,7 +2211,7 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -2215,7 +2228,7 @@
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2232,7 +2245,7 @@
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -2249,7 +2262,7 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -2266,7 +2279,7 @@
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -2283,7 +2296,7 @@
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -2300,7 +2313,7 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -2317,7 +2330,7 @@
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2334,7 +2347,7 @@
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2351,7 +2364,7 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -2368,7 +2381,7 @@
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2385,7 +2398,7 @@
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2402,7 +2415,7 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -2419,7 +2432,7 @@
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -2436,7 +2449,7 @@
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -2453,7 +2466,7 @@
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -2470,7 +2483,7 @@
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -2487,7 +2500,7 @@
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2504,7 +2517,7 @@
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2521,7 +2534,7 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2538,7 +2551,7 @@
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2555,7 +2568,7 @@
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2572,7 +2585,7 @@
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2589,7 +2602,7 @@
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -2606,7 +2619,7 @@
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2623,7 +2636,7 @@
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2640,7 +2653,7 @@
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2657,7 +2670,7 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2674,7 +2687,7 @@
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2691,7 +2704,7 @@
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -2708,7 +2721,7 @@
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2725,7 +2738,7 @@
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2742,7 +2755,7 @@
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2759,7 +2772,7 @@
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2776,7 +2789,7 @@
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -2793,7 +2806,7 @@
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2810,7 +2823,7 @@
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -2827,7 +2840,7 @@
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2844,7 +2857,7 @@
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2861,7 +2874,7 @@
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2878,7 +2891,7 @@
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2895,7 +2908,7 @@
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2912,7 +2925,7 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2929,7 +2942,7 @@
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2946,7 +2959,7 @@
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2963,7 +2976,7 @@
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2980,7 +2993,7 @@
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2997,7 +3010,7 @@
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -3014,7 +3027,7 @@
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -3031,7 +3044,7 @@
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -3048,7 +3061,7 @@
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -3065,7 +3078,7 @@
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -3082,7 +3095,7 @@
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -3099,7 +3112,7 @@
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -3116,7 +3129,7 @@
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -3133,7 +3146,7 @@
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -3150,7 +3163,7 @@
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -3167,7 +3180,7 @@
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3184,7 +3197,7 @@
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -3201,7 +3214,7 @@
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -3218,7 +3231,7 @@
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -3235,7 +3248,7 @@
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -3252,7 +3265,7 @@
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3269,7 +3282,7 @@
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -3286,7 +3299,7 @@
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -3303,7 +3316,7 @@
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -3320,7 +3333,7 @@
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -3337,7 +3350,7 @@
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -3354,7 +3367,7 @@
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -3371,7 +3384,7 @@
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -3388,7 +3401,7 @@
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -3405,7 +3418,7 @@
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -3422,7 +3435,7 @@
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -3439,7 +3452,7 @@
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -3456,7 +3469,7 @@
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -3473,7 +3486,7 @@
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -3490,7 +3503,7 @@
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -3507,7 +3520,7 @@
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3524,7 +3537,7 @@
         </is>
       </c>
       <c r="B181" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -3541,7 +3554,7 @@
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -3558,7 +3571,7 @@
         </is>
       </c>
       <c r="B183" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -3575,7 +3588,7 @@
         </is>
       </c>
       <c r="B184" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -3592,7 +3605,7 @@
         </is>
       </c>
       <c r="B185" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -3609,7 +3622,7 @@
         </is>
       </c>
       <c r="B186" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -3626,7 +3639,7 @@
         </is>
       </c>
       <c r="B187" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -3643,7 +3656,7 @@
         </is>
       </c>
       <c r="B188" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -3660,7 +3673,7 @@
         </is>
       </c>
       <c r="B189" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -3677,7 +3690,7 @@
         </is>
       </c>
       <c r="B190" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3694,7 +3707,7 @@
         </is>
       </c>
       <c r="B191" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -3711,7 +3724,7 @@
         </is>
       </c>
       <c r="B192" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -3728,7 +3741,7 @@
         </is>
       </c>
       <c r="B193" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -3745,7 +3758,7 @@
         </is>
       </c>
       <c r="B194" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -3762,7 +3775,7 @@
         </is>
       </c>
       <c r="B195" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -3779,7 +3792,7 @@
         </is>
       </c>
       <c r="B196" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -3796,7 +3809,7 @@
         </is>
       </c>
       <c r="B197" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3813,7 +3826,7 @@
         </is>
       </c>
       <c r="B198" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -3830,7 +3843,7 @@
         </is>
       </c>
       <c r="B199" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3847,7 +3860,7 @@
         </is>
       </c>
       <c r="B200" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -3864,7 +3877,7 @@
         </is>
       </c>
       <c r="B201" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -3881,7 +3894,7 @@
         </is>
       </c>
       <c r="B202" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3898,7 +3911,7 @@
         </is>
       </c>
       <c r="B203" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3915,7 +3928,7 @@
         </is>
       </c>
       <c r="B204" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -3932,7 +3945,7 @@
         </is>
       </c>
       <c r="B205" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3949,7 +3962,7 @@
         </is>
       </c>
       <c r="B206" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3966,7 +3979,7 @@
         </is>
       </c>
       <c r="B207" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -3983,7 +3996,7 @@
         </is>
       </c>
       <c r="B208" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -4000,7 +4013,7 @@
         </is>
       </c>
       <c r="B209" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -4017,7 +4030,7 @@
         </is>
       </c>
       <c r="B210" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -4034,7 +4047,7 @@
         </is>
       </c>
       <c r="B211" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -4051,7 +4064,7 @@
         </is>
       </c>
       <c r="B212" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -4068,7 +4081,7 @@
         </is>
       </c>
       <c r="B213" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -4085,7 +4098,7 @@
         </is>
       </c>
       <c r="B214" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -4102,7 +4115,7 @@
         </is>
       </c>
       <c r="B215" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -4119,7 +4132,7 @@
         </is>
       </c>
       <c r="B216" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -4136,7 +4149,7 @@
         </is>
       </c>
       <c r="B217" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -4153,7 +4166,7 @@
         </is>
       </c>
       <c r="B218" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -4170,7 +4183,7 @@
         </is>
       </c>
       <c r="B219" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -4187,7 +4200,7 @@
         </is>
       </c>
       <c r="B220" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -4204,7 +4217,7 @@
         </is>
       </c>
       <c r="B221" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -4221,7 +4234,7 @@
         </is>
       </c>
       <c r="B222" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -4238,7 +4251,7 @@
         </is>
       </c>
       <c r="B223" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -4255,7 +4268,7 @@
         </is>
       </c>
       <c r="B224" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -4272,7 +4285,7 @@
         </is>
       </c>
       <c r="B225" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -4289,7 +4302,7 @@
         </is>
       </c>
       <c r="B226" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -4306,7 +4319,7 @@
         </is>
       </c>
       <c r="B227" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -4323,7 +4336,7 @@
         </is>
       </c>
       <c r="B228" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -4340,7 +4353,7 @@
         </is>
       </c>
       <c r="B229" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -4357,7 +4370,7 @@
         </is>
       </c>
       <c r="B230" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -4374,7 +4387,7 @@
         </is>
       </c>
       <c r="B231" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -4391,7 +4404,7 @@
         </is>
       </c>
       <c r="B232" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -4408,7 +4421,7 @@
         </is>
       </c>
       <c r="B233" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -4425,7 +4438,7 @@
         </is>
       </c>
       <c r="B234" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -4442,7 +4455,7 @@
         </is>
       </c>
       <c r="B235" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -4459,7 +4472,7 @@
         </is>
       </c>
       <c r="B236" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -4476,7 +4489,7 @@
         </is>
       </c>
       <c r="B237" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -4493,7 +4506,7 @@
         </is>
       </c>
       <c r="B238" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -4510,7 +4523,7 @@
         </is>
       </c>
       <c r="B239" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -4527,7 +4540,7 @@
         </is>
       </c>
       <c r="B240" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -4544,7 +4557,7 @@
         </is>
       </c>
       <c r="B241" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -4561,7 +4574,7 @@
         </is>
       </c>
       <c r="B242" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -4578,7 +4591,7 @@
         </is>
       </c>
       <c r="B243" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -4595,7 +4608,7 @@
         </is>
       </c>
       <c r="B244" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -4612,7 +4625,7 @@
         </is>
       </c>
       <c r="B245" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -4629,7 +4642,7 @@
         </is>
       </c>
       <c r="B246" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -4646,7 +4659,7 @@
         </is>
       </c>
       <c r="B247" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -4663,7 +4676,7 @@
         </is>
       </c>
       <c r="B248" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -4680,7 +4693,7 @@
         </is>
       </c>
       <c r="B249" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -4697,7 +4710,7 @@
         </is>
       </c>
       <c r="B250" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -4714,7 +4727,7 @@
         </is>
       </c>
       <c r="B251" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -4731,7 +4744,7 @@
         </is>
       </c>
       <c r="B252" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -4748,7 +4761,7 @@
         </is>
       </c>
       <c r="B253" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -4765,7 +4778,7 @@
         </is>
       </c>
       <c r="B254" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -4782,7 +4795,7 @@
         </is>
       </c>
       <c r="B255" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -4799,7 +4812,7 @@
         </is>
       </c>
       <c r="B256" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -4816,7 +4829,7 @@
         </is>
       </c>
       <c r="B257" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -4833,7 +4846,7 @@
         </is>
       </c>
       <c r="B258" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -4850,7 +4863,7 @@
         </is>
       </c>
       <c r="B259" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -4867,7 +4880,7 @@
         </is>
       </c>
       <c r="B260" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -4884,7 +4897,7 @@
         </is>
       </c>
       <c r="B261" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -4901,7 +4914,7 @@
         </is>
       </c>
       <c r="B262" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -4918,7 +4931,7 @@
         </is>
       </c>
       <c r="B263" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -4935,7 +4948,7 @@
         </is>
       </c>
       <c r="B264" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -4952,7 +4965,7 @@
         </is>
       </c>
       <c r="B265" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -4969,7 +4982,7 @@
         </is>
       </c>
       <c r="B266" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -4986,7 +4999,7 @@
         </is>
       </c>
       <c r="B267" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -5003,7 +5016,7 @@
         </is>
       </c>
       <c r="B268" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -5020,7 +5033,7 @@
         </is>
       </c>
       <c r="B269" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -5037,7 +5050,7 @@
         </is>
       </c>
       <c r="B270" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -5054,7 +5067,7 @@
         </is>
       </c>
       <c r="B271" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -5071,7 +5084,7 @@
         </is>
       </c>
       <c r="B272" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -5088,7 +5101,7 @@
         </is>
       </c>
       <c r="B273" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -5105,7 +5118,7 @@
         </is>
       </c>
       <c r="B274" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -5122,7 +5135,7 @@
         </is>
       </c>
       <c r="B275" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -5139,7 +5152,7 @@
         </is>
       </c>
       <c r="B276" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -5156,7 +5169,7 @@
         </is>
       </c>
       <c r="B277" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -5173,7 +5186,7 @@
         </is>
       </c>
       <c r="B278" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -5190,7 +5203,7 @@
         </is>
       </c>
       <c r="B279" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -5207,7 +5220,7 @@
         </is>
       </c>
       <c r="B280" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -5224,7 +5237,7 @@
         </is>
       </c>
       <c r="B281" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -5241,7 +5254,7 @@
         </is>
       </c>
       <c r="B282" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -5258,7 +5271,7 @@
         </is>
       </c>
       <c r="B283" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -5275,7 +5288,7 @@
         </is>
       </c>
       <c r="B284" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -5292,7 +5305,7 @@
         </is>
       </c>
       <c r="B285" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -5309,7 +5322,7 @@
         </is>
       </c>
       <c r="B286" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -5326,7 +5339,7 @@
         </is>
       </c>
       <c r="B287" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -5343,7 +5356,7 @@
         </is>
       </c>
       <c r="B288" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -5360,7 +5373,7 @@
         </is>
       </c>
       <c r="B289" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -5377,7 +5390,7 @@
         </is>
       </c>
       <c r="B290" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -5394,7 +5407,7 @@
         </is>
       </c>
       <c r="B291" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -5411,7 +5424,7 @@
         </is>
       </c>
       <c r="B292" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -5428,7 +5441,7 @@
         </is>
       </c>
       <c r="B293" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -5445,7 +5458,7 @@
         </is>
       </c>
       <c r="B294" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -5462,7 +5475,7 @@
         </is>
       </c>
       <c r="B295" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -5479,7 +5492,7 @@
         </is>
       </c>
       <c r="B296" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -5496,7 +5509,7 @@
         </is>
       </c>
       <c r="B297" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -5513,7 +5526,7 @@
         </is>
       </c>
       <c r="B298" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -5530,7 +5543,7 @@
         </is>
       </c>
       <c r="B299" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -5547,7 +5560,7 @@
         </is>
       </c>
       <c r="B300" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -5564,7 +5577,7 @@
         </is>
       </c>
       <c r="B301" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -5581,7 +5594,7 @@
         </is>
       </c>
       <c r="B302" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -5598,7 +5611,7 @@
         </is>
       </c>
       <c r="B303" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -5615,7 +5628,7 @@
         </is>
       </c>
       <c r="B304" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -5632,7 +5645,7 @@
         </is>
       </c>
       <c r="B305" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -5649,7 +5662,7 @@
         </is>
       </c>
       <c r="B306" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -5666,7 +5679,7 @@
         </is>
       </c>
       <c r="B307" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -5683,7 +5696,7 @@
         </is>
       </c>
       <c r="B308" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -5700,7 +5713,7 @@
         </is>
       </c>
       <c r="B309" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -5717,7 +5730,7 @@
         </is>
       </c>
       <c r="B310" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -5734,7 +5747,7 @@
         </is>
       </c>
       <c r="B311" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -5751,7 +5764,7 @@
         </is>
       </c>
       <c r="B312" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -5768,7 +5781,7 @@
         </is>
       </c>
       <c r="B313" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -5785,7 +5798,7 @@
         </is>
       </c>
       <c r="B314" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -5802,7 +5815,7 @@
         </is>
       </c>
       <c r="B315" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -5819,7 +5832,7 @@
         </is>
       </c>
       <c r="B316" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -5836,7 +5849,7 @@
         </is>
       </c>
       <c r="B317" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -5853,7 +5866,7 @@
         </is>
       </c>
       <c r="B318" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -5870,7 +5883,7 @@
         </is>
       </c>
       <c r="B319" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -5887,7 +5900,7 @@
         </is>
       </c>
       <c r="B320" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -5904,7 +5917,7 @@
         </is>
       </c>
       <c r="B321" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -5921,7 +5934,7 @@
         </is>
       </c>
       <c r="B322" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -5938,7 +5951,7 @@
         </is>
       </c>
       <c r="B323" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -5955,7 +5968,7 @@
         </is>
       </c>
       <c r="B324" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -5972,7 +5985,7 @@
         </is>
       </c>
       <c r="B325" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -5989,7 +6002,7 @@
         </is>
       </c>
       <c r="B326" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -6006,7 +6019,7 @@
         </is>
       </c>
       <c r="B327" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -6023,7 +6036,7 @@
         </is>
       </c>
       <c r="B328" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -6040,7 +6053,7 @@
         </is>
       </c>
       <c r="B329" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -6057,7 +6070,7 @@
         </is>
       </c>
       <c r="B330" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -6074,7 +6087,7 @@
         </is>
       </c>
       <c r="B331" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -6091,7 +6104,7 @@
         </is>
       </c>
       <c r="B332" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -6108,7 +6121,7 @@
         </is>
       </c>
       <c r="B333" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -6125,7 +6138,7 @@
         </is>
       </c>
       <c r="B334" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -6142,7 +6155,7 @@
         </is>
       </c>
       <c r="B335" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -6159,7 +6172,7 @@
         </is>
       </c>
       <c r="B336" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -6176,7 +6189,7 @@
         </is>
       </c>
       <c r="B337" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -6193,7 +6206,7 @@
         </is>
       </c>
       <c r="B338" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -6210,7 +6223,7 @@
         </is>
       </c>
       <c r="B339" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -6227,7 +6240,7 @@
         </is>
       </c>
       <c r="B340" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -6244,7 +6257,7 @@
         </is>
       </c>
       <c r="B341" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -6261,7 +6274,7 @@
         </is>
       </c>
       <c r="B342" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -6278,7 +6291,7 @@
         </is>
       </c>
       <c r="B343" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -6295,7 +6308,7 @@
         </is>
       </c>
       <c r="B344" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -6312,7 +6325,7 @@
         </is>
       </c>
       <c r="B345" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -6329,7 +6342,7 @@
         </is>
       </c>
       <c r="B346" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -6346,7 +6359,7 @@
         </is>
       </c>
       <c r="B347" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -6363,7 +6376,7 @@
         </is>
       </c>
       <c r="B348" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -6380,7 +6393,7 @@
         </is>
       </c>
       <c r="B349" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -6397,7 +6410,7 @@
         </is>
       </c>
       <c r="B350" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -6414,7 +6427,7 @@
         </is>
       </c>
       <c r="B351" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -6431,7 +6444,7 @@
         </is>
       </c>
       <c r="B352" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -6448,7 +6461,7 @@
         </is>
       </c>
       <c r="B353" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -6465,7 +6478,7 @@
         </is>
       </c>
       <c r="B354" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -6482,7 +6495,7 @@
         </is>
       </c>
       <c r="B355" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -6499,7 +6512,7 @@
         </is>
       </c>
       <c r="B356" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -6516,7 +6529,7 @@
         </is>
       </c>
       <c r="B357" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -6533,7 +6546,7 @@
         </is>
       </c>
       <c r="B358" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -6550,7 +6563,7 @@
         </is>
       </c>
       <c r="B359" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -6567,7 +6580,7 @@
         </is>
       </c>
       <c r="B360" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -6584,7 +6597,7 @@
         </is>
       </c>
       <c r="B361" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -6601,7 +6614,7 @@
         </is>
       </c>
       <c r="B362" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -6618,7 +6631,7 @@
         </is>
       </c>
       <c r="B363" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -6635,7 +6648,7 @@
         </is>
       </c>
       <c r="B364" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -6652,7 +6665,7 @@
         </is>
       </c>
       <c r="B365" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -6669,7 +6682,7 @@
         </is>
       </c>
       <c r="B366" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C366" t="n">
         <v>0</v>
@@ -6686,7 +6699,7 @@
         </is>
       </c>
       <c r="B367" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -6703,7 +6716,7 @@
         </is>
       </c>
       <c r="B368" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -6720,7 +6733,7 @@
         </is>
       </c>
       <c r="B369" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -6737,7 +6750,7 @@
         </is>
       </c>
       <c r="B370" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -6754,7 +6767,7 @@
         </is>
       </c>
       <c r="B371" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -6771,7 +6784,7 @@
         </is>
       </c>
       <c r="B372" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -6788,7 +6801,7 @@
         </is>
       </c>
       <c r="B373" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -6805,7 +6818,7 @@
         </is>
       </c>
       <c r="B374" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -6822,7 +6835,7 @@
         </is>
       </c>
       <c r="B375" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -6839,7 +6852,7 @@
         </is>
       </c>
       <c r="B376" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
@@ -6856,7 +6869,7 @@
         </is>
       </c>
       <c r="B377" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C377" t="n">
         <v>0</v>
@@ -6873,7 +6886,7 @@
         </is>
       </c>
       <c r="B378" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -6890,7 +6903,7 @@
         </is>
       </c>
       <c r="B379" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -6907,7 +6920,7 @@
         </is>
       </c>
       <c r="B380" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C380" t="n">
         <v>0</v>
@@ -6924,7 +6937,7 @@
         </is>
       </c>
       <c r="B381" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -6941,7 +6954,7 @@
         </is>
       </c>
       <c r="B382" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
@@ -6958,7 +6971,7 @@
         </is>
       </c>
       <c r="B383" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -6975,7 +6988,7 @@
         </is>
       </c>
       <c r="B384" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C384" t="n">
         <v>0</v>
@@ -6992,7 +7005,7 @@
         </is>
       </c>
       <c r="B385" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -7009,7 +7022,7 @@
         </is>
       </c>
       <c r="B386" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -7026,7 +7039,7 @@
         </is>
       </c>
       <c r="B387" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C387" t="n">
         <v>0</v>
@@ -7043,7 +7056,7 @@
         </is>
       </c>
       <c r="B388" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -7060,7 +7073,7 @@
         </is>
       </c>
       <c r="B389" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -7077,7 +7090,7 @@
         </is>
       </c>
       <c r="B390" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -7094,7 +7107,7 @@
         </is>
       </c>
       <c r="B391" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C391" t="n">
         <v>0</v>
@@ -7111,7 +7124,7 @@
         </is>
       </c>
       <c r="B392" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C392" t="n">
         <v>0</v>
@@ -7128,7 +7141,7 @@
         </is>
       </c>
       <c r="B393" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -7145,7 +7158,7 @@
         </is>
       </c>
       <c r="B394" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
@@ -7162,7 +7175,7 @@
         </is>
       </c>
       <c r="B395" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -7179,7 +7192,7 @@
         </is>
       </c>
       <c r="B396" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C396" t="n">
         <v>0</v>
@@ -7196,7 +7209,7 @@
         </is>
       </c>
       <c r="B397" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -7213,7 +7226,7 @@
         </is>
       </c>
       <c r="B398" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -7230,7 +7243,7 @@
         </is>
       </c>
       <c r="B399" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C399" t="n">
         <v>0</v>
@@ -7247,7 +7260,7 @@
         </is>
       </c>
       <c r="B400" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -7264,7 +7277,7 @@
         </is>
       </c>
       <c r="B401" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C401" t="n">
         <v>0</v>
@@ -7281,7 +7294,7 @@
         </is>
       </c>
       <c r="B402" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -7298,7 +7311,7 @@
         </is>
       </c>
       <c r="B403" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -7315,7 +7328,7 @@
         </is>
       </c>
       <c r="B404" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -7332,7 +7345,7 @@
         </is>
       </c>
       <c r="B405" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C405" t="n">
         <v>0</v>
@@ -7349,7 +7362,7 @@
         </is>
       </c>
       <c r="B406" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -7366,7 +7379,7 @@
         </is>
       </c>
       <c r="B407" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C407" t="n">
         <v>0</v>
@@ -7383,7 +7396,7 @@
         </is>
       </c>
       <c r="B408" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C408" t="n">
         <v>0</v>
@@ -7400,7 +7413,7 @@
         </is>
       </c>
       <c r="B409" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -7417,7 +7430,7 @@
         </is>
       </c>
       <c r="B410" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -7434,7 +7447,7 @@
         </is>
       </c>
       <c r="B411" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -7451,7 +7464,7 @@
         </is>
       </c>
       <c r="B412" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -7468,7 +7481,7 @@
         </is>
       </c>
       <c r="B413" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C413" t="n">
         <v>0</v>
@@ -7485,7 +7498,7 @@
         </is>
       </c>
       <c r="B414" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C414" t="n">
         <v>0</v>
@@ -7502,7 +7515,7 @@
         </is>
       </c>
       <c r="B415" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C415" t="n">
         <v>0</v>
@@ -7519,7 +7532,7 @@
         </is>
       </c>
       <c r="B416" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -7536,7 +7549,7 @@
         </is>
       </c>
       <c r="B417" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -7553,7 +7566,7 @@
         </is>
       </c>
       <c r="B418" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -7570,7 +7583,7 @@
         </is>
       </c>
       <c r="B419" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -7587,7 +7600,7 @@
         </is>
       </c>
       <c r="B420" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -7604,7 +7617,7 @@
         </is>
       </c>
       <c r="B421" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -7621,7 +7634,7 @@
         </is>
       </c>
       <c r="B422" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -7638,7 +7651,7 @@
         </is>
       </c>
       <c r="B423" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -7655,7 +7668,7 @@
         </is>
       </c>
       <c r="B424" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -7672,7 +7685,7 @@
         </is>
       </c>
       <c r="B425" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -7689,7 +7702,7 @@
         </is>
       </c>
       <c r="B426" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -7706,7 +7719,7 @@
         </is>
       </c>
       <c r="B427" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -7723,7 +7736,7 @@
         </is>
       </c>
       <c r="B428" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C428" t="n">
         <v>0</v>
@@ -7740,7 +7753,7 @@
         </is>
       </c>
       <c r="B429" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C429" t="n">
         <v>0</v>
@@ -7757,7 +7770,7 @@
         </is>
       </c>
       <c r="B430" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -7774,7 +7787,7 @@
         </is>
       </c>
       <c r="B431" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C431" t="n">
         <v>0</v>
@@ -7791,7 +7804,7 @@
         </is>
       </c>
       <c r="B432" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -7808,7 +7821,7 @@
         </is>
       </c>
       <c r="B433" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -7825,7 +7838,7 @@
         </is>
       </c>
       <c r="B434" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -7842,7 +7855,7 @@
         </is>
       </c>
       <c r="B435" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -7859,7 +7872,7 @@
         </is>
       </c>
       <c r="B436" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -7876,7 +7889,7 @@
         </is>
       </c>
       <c r="B437" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -7893,7 +7906,7 @@
         </is>
       </c>
       <c r="B438" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -7910,7 +7923,7 @@
         </is>
       </c>
       <c r="B439" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -7927,7 +7940,7 @@
         </is>
       </c>
       <c r="B440" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -7944,7 +7957,7 @@
         </is>
       </c>
       <c r="B441" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
